--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/122.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/122.xlsx
@@ -479,13 +479,13 @@
         <v>-7.390557895530772</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.55519140031392</v>
+        <v>-21.56327292866493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03147529150526295</v>
+        <v>0.0427102292854335</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.850525264818264</v>
+        <v>-8.830788344096527</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.38480953123217</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.70073224573511</v>
+        <v>-21.70556258451962</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09410373887831441</v>
+        <v>-0.08411060884234026</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.311380254555484</v>
+        <v>-8.286886330152241</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.398067039752934</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.9486048938877</v>
+        <v>-21.95675975734171</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2358898270257148</v>
+        <v>-0.2287420989862852</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.186099453590788</v>
+        <v>-8.167804789894793</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.422221603168571</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.01518827840821</v>
+        <v>-22.02120175685452</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2428859958522701</v>
+        <v>-0.240475715466881</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.721335793801253</v>
+        <v>-7.702195331917281</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.44476704925103</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.9827692738737</v>
+        <v>-21.98803473426937</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3777345832555182</v>
+        <v>-0.373838044782587</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.959017398077539</v>
+        <v>-6.939671597905157</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.444885639347447</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.23528158954299</v>
+        <v>-22.23795587629919</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4790934736203989</v>
+        <v>-0.4776561056015259</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.364910172616902</v>
+        <v>-6.344933690558688</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.407431287693941</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.61157378106883</v>
+        <v>-22.61236091117441</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.646825521210517</v>
+        <v>-0.6461459492560158</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.958081244200309</v>
+        <v>-5.937987425977288</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.316470924957876</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.84210023285761</v>
+        <v>-22.83990017976749</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7875066938059946</v>
+        <v>-0.7906601032351547</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.680146092823061</v>
+        <v>-5.662081212449809</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.152165544972013</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31379650438443</v>
+        <v>-23.31366450119902</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8817178561314456</v>
+        <v>-0.8852770531305597</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.415127697588202</v>
+        <v>-5.393503620215837</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.908637011980725</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75747876656382</v>
+        <v>-23.75326444264455</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.121523642953624</v>
+        <v>-1.12596775019565</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.105443335617208</v>
+        <v>-5.091010987346076</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.585889936431456</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23558452609317</v>
+        <v>-24.23480228499447</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.065314731004703</v>
+        <v>-1.073533151547987</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.937427725628809</v>
+        <v>-4.927214590283824</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.189063683101289</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85511947626863</v>
+        <v>-24.85148694416652</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9976068749047976</v>
+        <v>-1.003869692701316</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.831150494355812</v>
+        <v>-4.821445815724986</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.742209080425857</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43683306932164</v>
+        <v>-25.43677440123924</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.884108580489367</v>
+        <v>-0.8899264986609958</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.718698447409901</v>
+        <v>-4.713794773522386</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.271584916765988</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.08003570173984</v>
+        <v>-26.08008459180851</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8724091870568396</v>
+        <v>-0.8764328397083105</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.674721830642001</v>
+        <v>-4.673025345259182</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.801302283254548</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.82322830260018</v>
+        <v>-26.82541368866969</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7975340468900372</v>
+        <v>-0.8024034977294844</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.579552422970635</v>
+        <v>-4.579708871190376</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.361782718115881</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64115181792475</v>
+        <v>-27.6426454095226</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7025895335345489</v>
+        <v>-0.7085932339671204</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.604501025012502</v>
+        <v>-4.606236622450257</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.973894357170097</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.46224340969908</v>
+        <v>-28.4651523687849</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5622554804266222</v>
+        <v>-0.5686698574360146</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.790405511126943</v>
+        <v>-4.788757915812792</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.648048767738429</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.16129316755805</v>
+        <v>-29.1649061436327</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2848630088116019</v>
+        <v>-0.2909400443471771</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.012816211516638</v>
+        <v>-5.01213175055527</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.394686523849674</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.60088333098984</v>
+        <v>-29.60434474785162</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1059840255649177</v>
+        <v>-0.1121588412378313</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.319699172552889</v>
+        <v>-5.322427238384628</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.213150359606061</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.22498705808244</v>
+        <v>-30.23128165442359</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3409494261809792</v>
+        <v>0.3362559795887408</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.591694180586836</v>
+        <v>-5.595370713750755</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.094043998078488</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.74409936270803</v>
+        <v>-30.74796656713976</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3581196182975845</v>
+        <v>0.3523163671465564</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.85754370698907</v>
+        <v>-5.86163091672981</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.030411208476048</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.10806147891552</v>
+        <v>-31.1116989000245</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6275772317676018</v>
+        <v>0.6220624320217217</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.158266519373008</v>
+        <v>-6.165688031796985</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.010259172488125</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.32536805613615</v>
+        <v>-31.32669786600395</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8502519385281101</v>
+        <v>0.8450549242285794</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.374526849124123</v>
+        <v>-6.382109698774709</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.019257112699751</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.6034132101679</v>
+        <v>-31.60575748896059</v>
       </c>
       <c r="F25" t="n">
-        <v>1.069230556097231</v>
+        <v>1.062757511005435</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.418337239658548</v>
+        <v>-6.424971621976952</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.049562564732122</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.48897867093746</v>
+        <v>-31.49244008779923</v>
       </c>
       <c r="F26" t="n">
-        <v>1.114693430952673</v>
+        <v>1.113417400160408</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.531708419895439</v>
+        <v>-6.539349937628427</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.094728245108737</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.57063486362867</v>
+        <v>-31.57568031871533</v>
       </c>
       <c r="F27" t="n">
-        <v>1.350035554505358</v>
+        <v>1.349722658065875</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.836938896610674</v>
+        <v>-6.845382211469835</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.148670921091046</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40495375441922</v>
+        <v>-31.40864739910718</v>
       </c>
       <c r="F28" t="n">
-        <v>1.496177747771179</v>
+        <v>1.493928804612398</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.961789464971081</v>
+        <v>-6.967279819682626</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.210284398557155</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.22188244778416</v>
+        <v>-31.22639500112232</v>
       </c>
       <c r="F29" t="n">
-        <v>1.516574684419948</v>
+        <v>1.514555524583912</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.239577946142321</v>
+        <v>-7.247253686923377</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.281644370731952</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.06547334009782</v>
+        <v>-31.07002256098748</v>
       </c>
       <c r="F30" t="n">
-        <v>1.62366837983972</v>
+        <v>1.619209605577094</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.281325175778908</v>
+        <v>-7.29258944760028</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.363992056964101</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.79232941545015</v>
+        <v>-30.79859223324667</v>
       </c>
       <c r="F31" t="n">
-        <v>1.57902685813792</v>
+        <v>1.578278840087282</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.280440265535996</v>
+        <v>-7.291391640917886</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.460567478301028</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.39854435735448</v>
+        <v>-30.40428649591967</v>
       </c>
       <c r="F32" t="n">
-        <v>1.530650135189797</v>
+        <v>1.529256768232726</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.321317251950272</v>
+        <v>-7.333217094664342</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.575977133741687</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.88095008936106</v>
+        <v>-29.8894716283301</v>
       </c>
       <c r="F33" t="n">
-        <v>1.509177617030306</v>
+        <v>1.5090602808655</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.586550763487275</v>
+        <v>-7.59650967047518</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.710678004538543</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.26620147690831</v>
+        <v>-29.27205606263144</v>
       </c>
       <c r="F34" t="n">
-        <v>1.515596883046565</v>
+        <v>1.515371988730687</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.56636894314065</v>
+        <v>-7.575154488480496</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.865220695713934</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.82396880526495</v>
+        <v>-28.8281073495778</v>
       </c>
       <c r="F35" t="n">
-        <v>1.537328518570002</v>
+        <v>1.536604945553699</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.592593575974782</v>
+        <v>-7.598069263665726</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.041374775469264</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.19112597839775</v>
+        <v>-28.19503473938785</v>
       </c>
       <c r="F36" t="n">
-        <v>1.429071239515905</v>
+        <v>1.427966323963982</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.506063043437254</v>
+        <v>-7.513792563293847</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.235812725868132</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.52106314225272</v>
+        <v>-27.52698128506512</v>
       </c>
       <c r="F37" t="n">
-        <v>1.553188456846274</v>
+        <v>1.552890227427393</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.438594748673828</v>
+        <v>-7.444055769344172</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.445978392942248</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.01098816682062</v>
+        <v>-27.01686230857122</v>
       </c>
       <c r="F38" t="n">
-        <v>1.415636248645622</v>
+        <v>1.41492734264992</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.400929839771115</v>
+        <v>-7.406513085613132</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.672483546943053</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.26865358666542</v>
+        <v>-26.27628532638467</v>
       </c>
       <c r="F39" t="n">
-        <v>1.466530810130207</v>
+        <v>1.466232580711325</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.403227672998565</v>
+        <v>-7.408033566748742</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.911138404013212</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.60893100004392</v>
+        <v>-25.61875301483955</v>
       </c>
       <c r="F40" t="n">
-        <v>1.520955234572704</v>
+        <v>1.5208818994697</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.109315247180239</v>
+        <v>-7.111036177597393</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.159638066809267</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.0715802553013</v>
+        <v>-25.08297164130121</v>
       </c>
       <c r="F41" t="n">
-        <v>1.529374104397532</v>
+        <v>1.531808829817255</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.151654046647723</v>
+        <v>-7.15528657874984</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.419497503594284</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.35602521025962</v>
+        <v>-24.36566633180118</v>
       </c>
       <c r="F42" t="n">
-        <v>1.547517208880653</v>
+        <v>1.54929680738021</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.869734354673938</v>
+        <v>-6.874838477842998</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.687324561238722</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.65465806314574</v>
+        <v>-23.66708591860144</v>
       </c>
       <c r="F43" t="n">
-        <v>1.493347012795236</v>
+        <v>1.494931051020116</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.87678430257603</v>
+        <v>-6.881111073653249</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.961868413562118</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.9606586493803</v>
+        <v>-22.97332606617247</v>
       </c>
       <c r="F44" t="n">
-        <v>1.606434630633845</v>
+        <v>1.609270254616656</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.768194571054982</v>
+        <v>-6.774418276796565</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.24625348534144</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.15107822427412</v>
+        <v>-22.16329096342767</v>
       </c>
       <c r="F45" t="n">
-        <v>1.652611300491857</v>
+        <v>1.655002024849778</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.676652806478867</v>
+        <v>-6.68078401728141</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.538362692612823</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.6467233868763</v>
+        <v>-21.65645739954833</v>
       </c>
       <c r="F46" t="n">
-        <v>1.65989592072356</v>
+        <v>1.664452475123525</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.518170759880952</v>
+        <v>-6.519769465126433</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.839147109890265</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.98548031911919</v>
+        <v>-20.99946776776543</v>
       </c>
       <c r="F47" t="n">
-        <v>1.734389718354743</v>
+        <v>1.73643821223198</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.491823901875147</v>
+        <v>-6.495299985757524</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.153811095039833</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.35000231755071</v>
+        <v>-20.36328086020126</v>
       </c>
       <c r="F48" t="n">
-        <v>1.767351402651484</v>
+        <v>1.770138136565625</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.454017211773293</v>
+        <v>-6.458216868671974</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.480605510657507</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.60894621269122</v>
+        <v>-19.62403368788252</v>
       </c>
       <c r="F49" t="n">
-        <v>1.922372032387623</v>
+        <v>1.924371636196191</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.178717235097313</v>
+        <v>-6.178208778383154</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.820876119060528</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.22612719699804</v>
+        <v>-19.24395740504168</v>
       </c>
       <c r="F50" t="n">
-        <v>1.929969549058809</v>
+        <v>1.930727345123181</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.165497360529175</v>
+        <v>-6.165883592071661</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.179116927322291</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.6385223506704</v>
+        <v>-18.65670945621532</v>
       </c>
       <c r="F51" t="n">
-        <v>1.899970602923418</v>
+        <v>1.899276363948317</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.198190149448235</v>
+        <v>-6.19663055625769</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.551771953581936</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.09399454384715</v>
+        <v>-18.1094731395878</v>
       </c>
       <c r="F52" t="n">
-        <v>1.930820236253652</v>
+        <v>1.932995844309429</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.216157249684148</v>
+        <v>-6.211889146689331</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.939234064016887</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.72339804532126</v>
+        <v>-17.74039712219752</v>
       </c>
       <c r="F53" t="n">
-        <v>2.022381556857235</v>
+        <v>2.022968237681265</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.105352798052388</v>
+        <v>-6.104736783187156</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.343537712772171</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.11138238770711</v>
+        <v>-17.13172065627348</v>
       </c>
       <c r="F54" t="n">
-        <v>2.07971005137868</v>
+        <v>2.081763434262784</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.096317913362329</v>
+        <v>-6.094435645718566</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.75755485439681</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.85746692706702</v>
+        <v>-16.87826965128574</v>
       </c>
       <c r="F55" t="n">
-        <v>2.023369136244352</v>
+        <v>2.02654210170098</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.323690955721942</v>
+        <v>-6.318014818749454</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.17728769025439</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.33335561292</v>
+        <v>-16.34965067280743</v>
       </c>
       <c r="F56" t="n">
-        <v>2.06094604302346</v>
+        <v>2.062715863509283</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.184544931282676</v>
+        <v>-6.178433672699032</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.59662267892922</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.23506212986068</v>
+        <v>-16.25347901872835</v>
       </c>
       <c r="F57" t="n">
-        <v>2.093325935503038</v>
+        <v>2.09744247928498</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.335390349154469</v>
+        <v>-6.33022266889614</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.99979091387776</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.96882148290909</v>
+        <v>-15.98839706640422</v>
       </c>
       <c r="F58" t="n">
-        <v>1.966079753777842</v>
+        <v>1.971174098933168</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.507131382375458</v>
+        <v>-6.502188596433006</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.37452009664521</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.69316949773869</v>
+        <v>-15.71368377055227</v>
       </c>
       <c r="F59" t="n">
-        <v>2.030018185583356</v>
+        <v>2.03593877289919</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.307586567102324</v>
+        <v>-6.306946107202759</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.70609119342525</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41558146584899</v>
+        <v>-15.43446769937589</v>
       </c>
       <c r="F60" t="n">
-        <v>2.088397816581188</v>
+        <v>2.094284180848953</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.324903429424937</v>
+        <v>-6.321960247291054</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.97560228669814</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.26359690937721</v>
+        <v>-15.2811533330363</v>
       </c>
       <c r="F61" t="n">
-        <v>2.023994929123317</v>
+        <v>2.031939565282054</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.167814749784092</v>
+        <v>-6.171750400311959</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.17179025199778</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.21282946207116</v>
+        <v>-15.22954497654915</v>
       </c>
       <c r="F62" t="n">
-        <v>2.061195382373673</v>
+        <v>2.068905346202798</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.252287010430649</v>
+        <v>-6.254702179822905</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.28266750469887</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.10856161262047</v>
+        <v>-15.1276042943671</v>
       </c>
       <c r="F63" t="n">
-        <v>2.022445113946505</v>
+        <v>2.029602619999669</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.310348855982131</v>
+        <v>-6.316416113503973</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.29666173550315</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.1754090035118</v>
+        <v>-15.1891520018147</v>
       </c>
       <c r="F64" t="n">
-        <v>1.872875726866976</v>
+        <v>1.879691002439455</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.301641534752155</v>
+        <v>-6.307391006827648</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.211052220533</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.16422784480716</v>
+        <v>-15.1806695749006</v>
       </c>
       <c r="F65" t="n">
-        <v>1.884648455402507</v>
+        <v>1.892451310362103</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.387370270163509</v>
+        <v>-6.393339747548012</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.02320056085911</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.1550609569317</v>
+        <v>-15.16826616447923</v>
       </c>
       <c r="F66" t="n">
-        <v>1.930810458239918</v>
+        <v>1.937131944118839</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.289062120083583</v>
+        <v>-6.293848457806293</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.73660468684966</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.01243395960319</v>
+        <v>-15.02884635565542</v>
       </c>
       <c r="F67" t="n">
-        <v>1.739400950393331</v>
+        <v>1.744519740582991</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.094332976574361</v>
+        <v>-6.10382742790991</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.36564569908967</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.11426219462729</v>
+        <v>-15.12706650361174</v>
       </c>
       <c r="F68" t="n">
-        <v>1.70341297084597</v>
+        <v>1.707441512504308</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.213566076044683</v>
+        <v>-6.222767186968217</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.92343654427435</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.00911921294742</v>
+        <v>-15.02072571524948</v>
       </c>
       <c r="F69" t="n">
-        <v>1.708966882646785</v>
+        <v>1.711372274025307</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.95806168817284</v>
+        <v>-5.965825431077501</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.42990018886084</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.04799659555313</v>
+        <v>-15.06244361084486</v>
       </c>
       <c r="F70" t="n">
-        <v>1.570510208175754</v>
+        <v>1.574504526786024</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.943169773256217</v>
+        <v>-5.951353970751433</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.911050849329621</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.06983090022077</v>
+        <v>-15.08305077478891</v>
       </c>
       <c r="F71" t="n">
-        <v>1.479408454217661</v>
+        <v>1.483451662896599</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.887112420520171</v>
+        <v>-5.894871274417965</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.386182311207214</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.18102158339502</v>
+        <v>-15.19219785309278</v>
       </c>
       <c r="F72" t="n">
-        <v>1.395596209498138</v>
+        <v>1.397405142038896</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.741825803456059</v>
+        <v>-5.750611348795906</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.878060285849671</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.30592593083096</v>
+        <v>-15.318524901527</v>
       </c>
       <c r="F73" t="n">
-        <v>1.316648526611195</v>
+        <v>1.316712083700465</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.898670032753558</v>
+        <v>-5.905460863291703</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.409391072592893</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.45241524358433</v>
+        <v>-15.46331283989069</v>
       </c>
       <c r="F74" t="n">
-        <v>1.210156179036054</v>
+        <v>1.209486385095287</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.796607125399841</v>
+        <v>-5.804092194913088</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.990408248728436</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.67075340125389</v>
+        <v>-15.68018918450703</v>
       </c>
       <c r="F75" t="n">
-        <v>1.11300183457672</v>
+        <v>1.116952152125187</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.819722349866615</v>
+        <v>-5.829177689147229</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.631565686712707</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.69590734158416</v>
+        <v>-15.70936188848191</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9360051189737982</v>
+        <v>0.938777185867339</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.922616388387707</v>
+        <v>-5.933191310240844</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.340296599565795</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.77248385614065</v>
+        <v>-15.78222764682641</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7748438966128139</v>
+        <v>0.7754550224711783</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.83760633698579</v>
+        <v>-5.849897300249214</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.111186693924959</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.92831117200983</v>
+        <v>-15.93660292765612</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7921069798598905</v>
+        <v>0.7917500823586058</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.817800970167918</v>
+        <v>-5.830747060351508</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.940195054171346</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.03418261571288</v>
+        <v>-16.04276282276431</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5165821088680318</v>
+        <v>0.5160589851332719</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.839733054972898</v>
+        <v>-5.853916063893818</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.822875761658739</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.53651829327465</v>
+        <v>-16.54346068302567</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4991821334286815</v>
+        <v>0.4963073973909355</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.785166849331261</v>
+        <v>-5.79847961502987</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.745699398408138</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.05874733977791</v>
+        <v>-17.06574350860446</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3356937437990456</v>
+        <v>0.3346181622883243</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.847658135104167</v>
+        <v>-5.860183770697203</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.69902825322756</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.47697743220814</v>
+        <v>-17.48308380178492</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01490155822642127</v>
+        <v>0.01299973455519136</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.88369011571333</v>
+        <v>-5.898704255801626</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.677262069211912</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.98830399339818</v>
+        <v>-17.99259165242047</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01188015198266783</v>
+        <v>0.01009566447624388</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.90239056697928</v>
+        <v>-5.917790938610063</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.670896114223352</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.79971290707259</v>
+        <v>-18.80806333080128</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.07373124726387982</v>
+        <v>-0.07771578786041551</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.904321724691711</v>
+        <v>-5.921237688451237</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.676246620009467</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.45895148201426</v>
+        <v>-19.4674290199215</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2471883218951553</v>
+        <v>-0.2502830632419124</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.994797685770839</v>
+        <v>-6.012647449841946</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.69741187964564</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.14531915606046</v>
+        <v>-20.14958725905527</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3606132812075821</v>
+        <v>-0.3637275785818069</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.211454025078176</v>
+        <v>-6.227162404141573</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.734442765998155</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.87618168160244</v>
+        <v>-20.88194093169166</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4702737052324844</v>
+        <v>-0.474087130588678</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.555796556728729</v>
+        <v>-6.570879142913162</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.788414319077649</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.70458967215311</v>
+        <v>-21.70814398014535</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.5858596055800875</v>
+        <v>-0.5935060123199425</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.805091905879589</v>
+        <v>-6.820766061894918</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.867674320985214</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.69420288612656</v>
+        <v>-22.69438377938064</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8088374307663445</v>
+        <v>-0.8136726585577234</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.836958452638141</v>
+        <v>-6.848784960249208</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.974514270059017</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.76959372558004</v>
+        <v>-23.76468516268566</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.082460478086973</v>
+        <v>-1.088928634171902</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.24060952659124</v>
+        <v>-7.254108074550792</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.108408732491613</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.01086367902108</v>
+        <v>-25.00420974067521</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.062278657740348</v>
+        <v>-1.068883706017551</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.592842915324995</v>
+        <v>-7.604586309819324</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.274397653457526</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.2366501477146</v>
+        <v>-26.23040688594554</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.290966842947162</v>
+        <v>-1.298706140817488</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.916979181594589</v>
+        <v>-7.92738787721425</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.467730577819094</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.52660972054324</v>
+        <v>-27.51721793835189</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.550543773539144</v>
+        <v>-1.557906617880718</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.262627078078609</v>
+        <v>-8.270107258584988</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.679533621686697</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.01880061791838</v>
+        <v>-29.00716967058199</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.841840580683671</v>
+        <v>-1.852024381987455</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.591921246592797</v>
+        <v>-8.598775634220212</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.907606497082421</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.61532781084036</v>
+        <v>-30.60469910991169</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.124439844611956</v>
+        <v>-2.138779301752617</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.913515229291596</v>
+        <v>-8.920154500616867</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.138523529802653</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.43304100793187</v>
+        <v>-32.42018780887875</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.180712313650147</v>
+        <v>-2.194259751678368</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.287597589713593</v>
+        <v>-9.294627981588217</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.357716959171865</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.12958750333719</v>
+        <v>-34.11517715559696</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.546351359212982</v>
+        <v>-2.562367745708995</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.714681673579815</v>
+        <v>-9.723139655459578</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.557591199390552</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.11586143468276</v>
+        <v>-36.1028224533687</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.940503092823665</v>
+        <v>-2.957335943466453</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.16280804300124</v>
+        <v>-10.17203848796598</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.727246521291807</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.17212394383166</v>
+        <v>-38.16584645901454</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.207623761011297</v>
+        <v>-3.224505501722754</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.54157896100861</v>
+        <v>-10.55174809529179</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.852450357365997</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.36859339190993</v>
+        <v>-40.35774224116881</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.575932204323468</v>
+        <v>-3.59226637626583</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.68591222173367</v>
+        <v>-10.69879475482799</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.934046738078264</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.27113819165272</v>
+        <v>-42.2603310419734</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.023110106412711</v>
+        <v>-4.043502154054613</v>
       </c>
       <c r="G101" t="n">
-        <v>-10.97501386479495</v>
+        <v>-10.98697726459829</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.953901647939261</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.48144841817123</v>
+        <v>-44.47618295777556</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.248992001677915</v>
+        <v>-4.266797764687219</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.12751176698776</v>
+        <v>-11.14374326978592</v>
       </c>
     </row>
   </sheetData>
